--- a/biology/Médecine/1162_en_santé_et_médecine/1162_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1162_en_santé_et_médecine/1162_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1162_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1162_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1162 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1162_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1162_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Rappelant les décisions prises en 1139 au IIe concile du Latran, et à celui de Reims en 1148, le concile de Montpellier, tenu par Alexandre III, interdit expressément à tout clerc régulier d'exercer la médecine à l'intérieur des couvents[1].
-Première mention de l'hôtel-Dieu Saint-Jacques de Melun, en Île-de-France, établissement qui dépend alors de l'abbaye Saint-Père, et qui restera en fonction jusqu'en 1793[2].
-Première mention de l'hospice fondé par un bourgeois de Vence à un gué du Var qui contrôle l'accès à Nice, et consacré en 1205 au saint éponyme de la ville de Saint-Laurent, dont il deviendra le berceau[3].
-En Angleterre, « un hôpital est mentionné à Ely dans les rapports officiels du shérif du Cambridgeshire à l'Échiquier[4] », mention « qui renvoie probablement à la léproserie Sainte-Marie-Madeleine, bien que celle-ci puisse avoir été fondée à l'origine comme un hôpital pour les pèlerins en visite au sanctuaire de sainte Etheldrède[5] ».
-« Fondé au commencement du XIIe siècle pour la réception des pèlerins, cet hospice [l'hôpital d'Aubrac] reçoit des mains de Pierre II, évêque de Rodez, un règle particulière […], les plus anciens statuts que nous rencontrions dans un hôpital français[6]. »</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Rappelant les décisions prises en 1139 au IIe concile du Latran, et à celui de Reims en 1148, le concile de Montpellier, tenu par Alexandre III, interdit expressément à tout clerc régulier d'exercer la médecine à l'intérieur des couvents.
+Première mention de l'hôtel-Dieu Saint-Jacques de Melun, en Île-de-France, établissement qui dépend alors de l'abbaye Saint-Père, et qui restera en fonction jusqu'en 1793.
+Première mention de l'hospice fondé par un bourgeois de Vence à un gué du Var qui contrôle l'accès à Nice, et consacré en 1205 au saint éponyme de la ville de Saint-Laurent, dont il deviendra le berceau.
+En Angleterre, « un hôpital est mentionné à Ely dans les rapports officiels du shérif du Cambridgeshire à l'Échiquier », mention « qui renvoie probablement à la léproserie Sainte-Marie-Madeleine, bien que celle-ci puisse avoir été fondée à l'origine comme un hôpital pour les pèlerins en visite au sanctuaire de sainte Etheldrède ».
+« Fondé au commencement du XIIe siècle pour la réception des pèlerins, cet hospice [l'hôpital d'Aubrac] reçoit des mains de Pierre II, évêque de Rodez, un règle particulière […], les plus anciens statuts que nous rencontrions dans un hôpital français. »</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1162_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1162_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1121-1162 : Avenzoar (1090 ?-1162) compose son « ouvrage capital », le Teyssir, dont « le titre complet signifie : « Livre de la simplification concernant la thérapeutique et la diététique[7] » ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1121-1162 : Avenzoar (1090 ?-1162) compose son « ouvrage capital », le Teyssir, dont « le titre complet signifie : « Livre de la simplification concernant la thérapeutique et la diététique » ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1162_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1162_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avenzoar (né entre 1090 et 1094), médecin arabe, auteur du Teysir, ouvrage de thérapeutique et de diététique qui sera traduit et commenté jusqu'à la fin de la Renaissance[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avenzoar (né entre 1090 et 1094), médecin arabe, auteur du Teysir, ouvrage de thérapeutique et de diététique qui sera traduit et commenté jusqu'à la fin de la Renaissance.
 </t>
         </is>
       </c>
